--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="МБЗ" sheetId="1" r:id="rId1"/>
+    <sheet name="МВД" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="97">
   <si>
     <t>Заболевания</t>
   </si>
@@ -37,121 +38,274 @@
     <t>Значения для периода (ЗДП)</t>
   </si>
   <si>
-    <t>Верхние и нижние границы (ВГ и НГ)</t>
+    <t>Верхние и нижние границы (НГ и ВГ)</t>
+  </si>
+  <si>
+    <t>Холестероз</t>
+  </si>
+  <si>
+    <t>Насморк</t>
+  </si>
+  <si>
+    <t>Кашель</t>
+  </si>
+  <si>
+    <t>Головная боль</t>
+  </si>
+  <si>
+    <t>Кровоизлияние</t>
+  </si>
+  <si>
+    <t>Потеря зрения</t>
+  </si>
+  <si>
+    <t>Обморок</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>['Сильная головная боль', 'Мигрень']</t>
+  </si>
+  <si>
+    <t>['Сильное кровотечение', 'Сильная рвота']</t>
+  </si>
+  <si>
+    <t>['Сильные галлюцинации', 'Слабая голосная боль']</t>
+  </si>
+  <si>
+    <t>[113 159]</t>
+  </si>
+  <si>
+    <t>[41 49]</t>
+  </si>
+  <si>
+    <t>['Хорошая память', 'Сильное кровотечение', 'Слабая голосная боль', 'Слабое кровотечение', 'Мигрень']</t>
+  </si>
+  <si>
+    <t>['Сильная рвота', 'Отсутствие галлюцинаций', 'Сильная головная боль']</t>
+  </si>
+  <si>
+    <t>['Плохая память']</t>
+  </si>
+  <si>
+    <t>['Сильная рвота', 'Слабое кровотечение', 'Слабая голосная боль', 'Отсутствие галлюцинаций', 'Мигрень', 'Сильное кровотечение', 'Сильная головная боль', 'Сильные галлюцинации']</t>
+  </si>
+  <si>
+    <t>[105 192]</t>
+  </si>
+  <si>
+    <t>[54 79]</t>
+  </si>
+  <si>
+    <t>[32 45]</t>
   </si>
   <si>
     <t>Ожирение</t>
   </si>
   <si>
-    <t>Головная боль</t>
-  </si>
-  <si>
-    <t>Насморк</t>
-  </si>
-  <si>
-    <t>Кашель</t>
-  </si>
-  <si>
-    <t>Потеря зрения</t>
-  </si>
-  <si>
-    <t>Боль в животе</t>
-  </si>
-  <si>
-    <t>Кровоизлияние</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>['Плохая память', 'Отсутствие галлюцинаций', 'Слабое кровотечение']</t>
-  </si>
-  <si>
-    <t>['Сильные галлюцинации']</t>
-  </si>
-  <si>
-    <t>['Слабое кровотечение', 'Хорошая память', 'Мигрень', 'Сильное кровотечение']</t>
-  </si>
-  <si>
-    <t>['Плохая память', 'Сильные галлюцинации', 'Слабая голосная боль', 'Сильная головная боль']</t>
-  </si>
-  <si>
-    <t>[112 116]</t>
-  </si>
-  <si>
-    <t>[123 167]</t>
-  </si>
-  <si>
-    <t>[ 67 119]</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>['Хорошая память', 'Слабое кровотечение']</t>
-  </si>
-  <si>
-    <t>['Отсутствие галлюцинаций', 'Сильные галлюцинации']</t>
-  </si>
-  <si>
-    <t>['Сильная головная боль', 'Плохая память']</t>
-  </si>
-  <si>
-    <t>[117 142]</t>
-  </si>
-  <si>
-    <t>[33 94]</t>
-  </si>
-  <si>
-    <t>[ 95 124]</t>
-  </si>
-  <si>
-    <t>Холестероз</t>
-  </si>
-  <si>
-    <t>['Сильное кровотечение', 'Слабое кровотечение']</t>
-  </si>
-  <si>
-    <t>['Плохая память', 'Слабая голосная боль', 'Хорошая память', 'Отсутствие галлюцинаций', 'Мигрень']</t>
-  </si>
-  <si>
-    <t>[125 179]</t>
-  </si>
-  <si>
-    <t>[33 64]</t>
+    <t>['Слабое кровотечение', 'Плохая память', 'Мигрень', 'Хорошая память']</t>
+  </si>
+  <si>
+    <t>[132 170]</t>
+  </si>
+  <si>
+    <t>[12 14]</t>
+  </si>
+  <si>
+    <t>[ 60 128]</t>
+  </si>
+  <si>
+    <t>[170 179]</t>
   </si>
   <si>
     <t>[True, False]</t>
   </si>
   <si>
+    <t>[False]</t>
+  </si>
+  <si>
+    <t>['Сильное кровотечение', 'Сильная рвота', 'Сильная головная боль', 'Слабая голосная боль', 'Отсутствие галлюцинаций', 'Слабое кровотечение', 'Плохая память', 'Хорошая память', 'Сильные галлюцинации', 'Мигрень']</t>
+  </si>
+  <si>
+    <t>['Хорошая память', 'Сильные галлюцинации', 'Хорошая память', 'Сильные галлюцинации', 'Сильное кровотечение']</t>
+  </si>
+  <si>
+    <t>[15, 192]</t>
+  </si>
+  <si>
+    <t>[162, 186]</t>
+  </si>
+  <si>
     <t>[True]</t>
   </si>
   <si>
-    <t>['Слабое кровотечение', 'Плохая память', 'Сильные галлюцинации', 'Мигрень', 'Слабая голосная боль', 'Сильная головная боль', 'Отсутствие галлюцинаций', 'Сильное кровотечение', 'Сильная рвота', 'Хорошая память']</t>
-  </si>
-  <si>
-    <t>['Сильное кровотечение', 'Сильная рвота', 'Сильная рвота', 'Слабая голосная боль', 'Сильная рвота', 'Сильная головная боль', 'Сильная головная боль', 'Слабое кровотечение']</t>
-  </si>
-  <si>
-    <t>[21, 190]</t>
-  </si>
-  <si>
-    <t>[66, 143]</t>
-  </si>
-  <si>
-    <t>[False]</t>
-  </si>
-  <si>
-    <t>['Хорошая память', 'Отсутствие галлюцинаций', 'Сильные галлюцинации', 'Слабая голосная боль', 'Сильная головная боль', 'Мигрень', 'Слабое кровотечение', 'Сильная рвота', 'Плохая память', 'Сильное кровотечение']</t>
-  </si>
-  <si>
-    <t>['Хорошая память', 'Сильная рвота', 'Сильные галлюцинации', 'Слабая голосная боль']</t>
-  </si>
-  <si>
-    <t>[3, 170]</t>
-  </si>
-  <si>
-    <t>[58, 113]</t>
+    <t>['Сильная рвота', 'Слабое кровотечение', 'Слабая голосная боль', 'Отсутствие галлюцинаций', 'Мигрень', 'Сильное кровотечение', 'Сильная головная боль', 'Сильные галлюцинации', 'Хорошая память', 'Плохая память']</t>
+  </si>
+  <si>
+    <t>['Сильная головная боль', 'Сильная головная боль', 'Сильная головная боль', 'Сильная рвота']</t>
+  </si>
+  <si>
+    <t>[4, 199]</t>
+  </si>
+  <si>
+    <t>[38, 96]</t>
+  </si>
+  <si>
+    <t>(ИБ, признак, номер ПД, длительность ПД, число МН в ПД)</t>
+  </si>
+  <si>
+    <t>Выборка данных (ИБ, признак, МН, значение в МН)</t>
+  </si>
+  <si>
+    <t>Экземпляр Холестероз - 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Экземпляр Холестероз - 2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Экземпляр Холестероз - 3</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Экземпляр Ожирение - 1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Экземпляр Ожирение - 2</t>
+  </si>
+  <si>
+    <t>Экземпляр Ожирение - 3</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -516,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>8</v>
@@ -608,15 +762,15 @@
         <v>9</v>
       </c>
       <c r="X2" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y2" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -646,13 +800,13 @@
         <v>10</v>
       </c>
       <c r="P3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>16</v>
@@ -661,13 +815,13 @@
         <v>8</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -699,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
@@ -717,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="X4" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y4" s="2">
         <v>9</v>
@@ -770,10 +924,10 @@
         <v>10</v>
       </c>
       <c r="X5" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -805,7 +959,7 @@
         <v>13</v>
       </c>
       <c r="P6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>8</v>
@@ -823,10 +977,10 @@
         <v>10</v>
       </c>
       <c r="X6" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -876,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="X7" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="2">
         <v>16</v>
@@ -884,19 +1038,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="K8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>8</v>
@@ -914,65 +1068,65 @@
         <v>11</v>
       </c>
       <c r="X8" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="K10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>8</v>
@@ -981,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>8</v>
@@ -990,27 +1144,27 @@
         <v>12</v>
       </c>
       <c r="X10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y10" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="K11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>8</v>
@@ -1019,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>8</v>
@@ -1028,65 +1182,65 @@
         <v>12</v>
       </c>
       <c r="X11" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="K12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X12" s="2">
         <v>2</v>
       </c>
       <c r="Y12" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>8</v>
@@ -1095,7 +1249,7 @@
         <v>13</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>8</v>
@@ -1104,10 +1258,10 @@
         <v>13</v>
       </c>
       <c r="X13" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1118,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>8</v>
@@ -1127,10 +1281,10 @@
         <v>13</v>
       </c>
       <c r="X14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y14" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1141,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>8</v>
@@ -1150,10 +1304,10 @@
         <v>13</v>
       </c>
       <c r="X15" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y15" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1164,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>8</v>
@@ -1173,10 +1327,10 @@
         <v>14</v>
       </c>
       <c r="X16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="18:25">
@@ -1187,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>8</v>
@@ -1196,10 +1350,10 @@
         <v>14</v>
       </c>
       <c r="X17" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="18:25">
@@ -1210,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>8</v>
@@ -1219,15 +1373,15 @@
         <v>14</v>
       </c>
       <c r="X18" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="18:25">
       <c r="R19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>9</v>
@@ -1236,44 +1390,44 @@
         <v>15</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="X19" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y19" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="18:25">
       <c r="R20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X20" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="18:25">
       <c r="R21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>10</v>
@@ -1282,13 +1436,13 @@
         <v>17</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X21" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y21" s="2">
         <v>9</v>
@@ -1296,7 +1450,7 @@
     </row>
     <row r="22" spans="18:25">
       <c r="R22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>10</v>
@@ -1305,21 +1459,21 @@
         <v>18</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X22" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="18:25">
       <c r="R23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>10</v>
@@ -1328,21 +1482,21 @@
         <v>19</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X23" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Y23" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="18:25">
       <c r="R24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>11</v>
@@ -1351,13 +1505,13 @@
         <v>20</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="X24" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Y24" s="2">
         <v>16</v>
@@ -1365,7 +1519,7 @@
     </row>
     <row r="25" spans="18:25">
       <c r="R25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>11</v>
@@ -1374,223 +1528,177 @@
         <v>21</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="X25" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="18:25">
       <c r="R26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y26" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="18:25">
       <c r="R27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="X27" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y27" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="18:25">
       <c r="R28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="V28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X28" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Y28" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="18:25">
       <c r="R29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X29" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y29" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="18:25">
       <c r="R30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X30" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="18:25">
       <c r="R31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X31" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="18:25">
       <c r="R32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X32" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Y32" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="18:25">
-      <c r="R33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X33" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="18:25">
-      <c r="R34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X34" s="2">
-        <v>13</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1604,4 +1712,4133 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="G95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="G96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10">
+      <c r="G97" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10">
+      <c r="G98" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="7:10">
+      <c r="G99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="7:10">
+      <c r="G100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="7:10">
+      <c r="G101" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="7:10">
+      <c r="G102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="7:10">
+      <c r="G103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="7:10">
+      <c r="G104" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="7:10">
+      <c r="G105" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="7:10">
+      <c r="G106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="7:10">
+      <c r="G107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="7:10">
+      <c r="G108" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="7:10">
+      <c r="G109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="7:10">
+      <c r="G110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="7:10">
+      <c r="G111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="7:10">
+      <c r="G112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="7:10">
+      <c r="G113" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="7:10">
+      <c r="G114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="7:10">
+      <c r="G115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="7:10">
+      <c r="G116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="7:10">
+      <c r="G117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="7:10">
+      <c r="G118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="7:10">
+      <c r="G119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="7:10">
+      <c r="G120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="7:10">
+      <c r="G121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="7:10">
+      <c r="G122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="7:10">
+      <c r="G123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="7:10">
+      <c r="G124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="7:10">
+      <c r="G125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="7:10">
+      <c r="G126" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="7:10">
+      <c r="G127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="7:10">
+      <c r="G128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="7:10">
+      <c r="G129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="7:10">
+      <c r="G130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="7:10">
+      <c r="G131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="7:10">
+      <c r="G132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="7:10">
+      <c r="G133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="7:10">
+      <c r="G134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="7:10">
+      <c r="G135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="7:10">
+      <c r="G136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="7:10">
+      <c r="G137" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="7:10">
+      <c r="G138" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="7:10">
+      <c r="G139" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="7:10">
+      <c r="G140" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="7:10">
+      <c r="G141" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="7:10">
+      <c r="G142" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="7:10">
+      <c r="G143" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="7:10">
+      <c r="G144" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="7:10">
+      <c r="G145" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="7:10">
+      <c r="G146" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="7:10">
+      <c r="G147" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="7:10">
+      <c r="G148" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="7:10">
+      <c r="G149" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="7:10">
+      <c r="G150" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="7:10">
+      <c r="G151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="7:10">
+      <c r="G152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="7:10">
+      <c r="G153" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="7:10">
+      <c r="G154" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="7:10">
+      <c r="G155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="7:10">
+      <c r="G156" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="7:10">
+      <c r="G157" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="7:10">
+      <c r="G158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="7:10">
+      <c r="G159" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="7:10">
+      <c r="G160" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="7:10">
+      <c r="G161" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="7:10">
+      <c r="G162" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="7:10">
+      <c r="G163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="7:10">
+      <c r="G164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="7:10">
+      <c r="G165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="7:10">
+      <c r="G166" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="7:10">
+      <c r="G167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="7:10">
+      <c r="G168" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="7:10">
+      <c r="G169" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="7:10">
+      <c r="G170" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="7:10">
+      <c r="G171" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="7:10">
+      <c r="G172" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="7:10">
+      <c r="G173" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="7:10">
+      <c r="G174" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="7:10">
+      <c r="G175" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="7:10">
+      <c r="G176" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="7:10">
+      <c r="G177" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="7:10">
+      <c r="G178" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="7:10">
+      <c r="G179" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="7:10">
+      <c r="G180" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="7:10">
+      <c r="G181" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="7:10">
+      <c r="G182" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="7:10">
+      <c r="G183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="7:10">
+      <c r="G184" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="7:10">
+      <c r="G185" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="7:10">
+      <c r="G186" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="7:10">
+      <c r="G187" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="7:10">
+      <c r="G188" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="7:10">
+      <c r="G189" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="7:10">
+      <c r="G190" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="7:10">
+      <c r="G191" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="7:10">
+      <c r="G192" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="7:10">
+      <c r="G193" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" spans="7:10">
+      <c r="G194" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="186">
   <si>
     <t>Заболевания</t>
   </si>
@@ -41,16 +41,19 @@
     <t>Верхние и нижние границы (НГ и ВГ)</t>
   </si>
   <si>
-    <t>Холестероз</t>
+    <t>Перикардит</t>
+  </si>
+  <si>
+    <t>Головная боль</t>
+  </si>
+  <si>
+    <t>Кашель</t>
   </si>
   <si>
     <t>Насморк</t>
   </si>
   <si>
-    <t>Кашель</t>
-  </si>
-  <si>
-    <t>Головная боль</t>
+    <t>Галлюцинации</t>
   </si>
   <si>
     <t>Кровоизлияние</t>
@@ -59,100 +62,109 @@
     <t>Потеря зрения</t>
   </si>
   <si>
-    <t>Обморок</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>['Сильная головная боль', 'Мигрень']</t>
-  </si>
-  <si>
-    <t>['Сильное кровотечение', 'Сильная рвота']</t>
-  </si>
-  <si>
-    <t>['Сильные галлюцинации', 'Слабая голосная боль']</t>
-  </si>
-  <si>
-    <t>[113 159]</t>
-  </si>
-  <si>
-    <t>[41 49]</t>
-  </si>
-  <si>
-    <t>['Хорошая память', 'Сильное кровотечение', 'Слабая голосная боль', 'Слабое кровотечение', 'Мигрень']</t>
-  </si>
-  <si>
-    <t>['Сильная рвота', 'Отсутствие галлюцинаций', 'Сильная головная боль']</t>
+    <t>['Мигрень', 'Сильная рвота', 'Слабое кровотечение']</t>
+  </si>
+  <si>
+    <t>[37 74]</t>
+  </si>
+  <si>
+    <t>[ 85 180]</t>
+  </si>
+  <si>
+    <t>[22 76]</t>
+  </si>
+  <si>
+    <t>[ 98 121]</t>
   </si>
   <si>
     <t>['Плохая память']</t>
   </si>
   <si>
-    <t>['Сильная рвота', 'Слабое кровотечение', 'Слабая голосная боль', 'Отсутствие галлюцинаций', 'Мигрень', 'Сильное кровотечение', 'Сильная головная боль', 'Сильные галлюцинации']</t>
-  </si>
-  <si>
-    <t>[105 192]</t>
-  </si>
-  <si>
-    <t>[54 79]</t>
-  </si>
-  <si>
-    <t>[32 45]</t>
+    <t>['Слабая голосная боль', 'Сильное кровотечение', 'Сильная рвота', 'Мигрень', 'Сильные галлюцинации']</t>
+  </si>
+  <si>
+    <t>['Слабое кровотечение']</t>
+  </si>
+  <si>
+    <t>['Слабая голосная боль', 'Плохая память', 'Сильное кровотечение']</t>
+  </si>
+  <si>
+    <t>[106 179]</t>
+  </si>
+  <si>
+    <t>[66 86]</t>
+  </si>
+  <si>
+    <t>[ 87 167]</t>
+  </si>
+  <si>
+    <t>[22 53]</t>
   </si>
   <si>
     <t>Ожирение</t>
   </si>
   <si>
-    <t>['Слабое кровотечение', 'Плохая память', 'Мигрень', 'Хорошая память']</t>
-  </si>
-  <si>
-    <t>[132 170]</t>
-  </si>
-  <si>
-    <t>[12 14]</t>
-  </si>
-  <si>
-    <t>[ 60 128]</t>
-  </si>
-  <si>
-    <t>[170 179]</t>
+    <t>['Сильные галлюцинации']</t>
+  </si>
+  <si>
+    <t>['Сильное кровотечение']</t>
+  </si>
+  <si>
+    <t>['Сильная головная боль', 'Плохая память', 'Отсутствие галлюцинаций']</t>
+  </si>
+  <si>
+    <t>['Сильное кровотечение', 'Сильная рвота', 'Хорошая память', 'Слабая голосная боль']</t>
+  </si>
+  <si>
+    <t>[123 195]</t>
+  </si>
+  <si>
+    <t>[ 66 117]</t>
+  </si>
+  <si>
+    <t>[60 63]</t>
+  </si>
+  <si>
+    <t>[180 196]</t>
   </si>
   <si>
     <t>[True, False]</t>
   </si>
   <si>
+    <t>[True]</t>
+  </si>
+  <si>
+    <t>['Сильные галлюцинации', 'Слабое кровотечение', 'Сильная рвота', 'Отсутствие галлюцинаций', 'Сильное кровотечение', 'Плохая память', 'Слабая голосная боль', 'Хорошая память', 'Сильная головная боль', 'Мигрень']</t>
+  </si>
+  <si>
+    <t>['Отсутствие галлюцинаций', 'Сильное кровотечение']</t>
+  </si>
+  <si>
+    <t>[16, 191]</t>
+  </si>
+  <si>
+    <t>[60, 106]</t>
+  </si>
+  <si>
     <t>[False]</t>
   </si>
   <si>
-    <t>['Сильное кровотечение', 'Сильная рвота', 'Сильная головная боль', 'Слабая голосная боль', 'Отсутствие галлюцинаций', 'Слабое кровотечение', 'Плохая память', 'Хорошая память', 'Сильные галлюцинации', 'Мигрень']</t>
-  </si>
-  <si>
-    <t>['Хорошая память', 'Сильные галлюцинации', 'Хорошая память', 'Сильные галлюцинации', 'Сильное кровотечение']</t>
-  </si>
-  <si>
-    <t>[15, 192]</t>
-  </si>
-  <si>
-    <t>[162, 186]</t>
-  </si>
-  <si>
-    <t>[True]</t>
-  </si>
-  <si>
-    <t>['Сильная рвота', 'Слабое кровотечение', 'Слабая голосная боль', 'Отсутствие галлюцинаций', 'Мигрень', 'Сильное кровотечение', 'Сильная головная боль', 'Сильные галлюцинации', 'Хорошая память', 'Плохая память']</t>
-  </si>
-  <si>
-    <t>['Сильная головная боль', 'Сильная головная боль', 'Сильная головная боль', 'Сильная рвота']</t>
-  </si>
-  <si>
-    <t>[4, 199]</t>
-  </si>
-  <si>
-    <t>[38, 96]</t>
+    <t>['Слабая голосная боль', 'Плохая память', 'Сильное кровотечение', 'Сильная рвота', 'Мигрень', 'Сильные галлюцинации', 'Сильная головная боль', 'Слабое кровотечение', 'Отсутствие галлюцинаций', 'Хорошая память']</t>
+  </si>
+  <si>
+    <t>['Сильная головная боль', 'Сильное кровотечение', 'Сильная головная боль']</t>
+  </si>
+  <si>
+    <t>[9, 194]</t>
+  </si>
+  <si>
+    <t>[123, 126]</t>
   </si>
   <si>
     <t>(ИБ, признак, номер ПД, длительность ПД, число МН в ПД)</t>
@@ -161,7 +173,7 @@
     <t>Выборка данных (ИБ, признак, МН, значение в МН)</t>
   </si>
   <si>
-    <t>Экземпляр Холестероз - 1</t>
+    <t>Экземпляр Перикардит - 1</t>
   </si>
   <si>
     <t>1</t>
@@ -173,139 +185,394 @@
     <t>2</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Мигрень</t>
+  </si>
+  <si>
+    <t>Слабое кровотечение</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Плохая память</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>Сильное кровотечение</t>
+  </si>
+  <si>
+    <t>Слабая голосная боль</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>122</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Экземпляр Перикардит - 2</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Сильная рвота</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Сильные галлюцинации</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>119</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Экземпляр Холестероз - 2</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Экземпляр Перикардит - 3</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Экземпляр Ожирение - 1</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Экземпляр Холестероз - 3</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Экземпляр Ожирение - 1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>35</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>184</t>
   </si>
   <si>
     <t>Экземпляр Ожирение - 2</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Отсутствие галлюцинаций</t>
+  </si>
+  <si>
+    <t>Сильная головная боль</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
     <t>Экземпляр Ожирение - 3</t>
   </si>
   <si>
-    <t>33</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>182</t>
   </si>
 </sst>
 </file>
@@ -670,7 +937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,13 +990,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -744,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="P2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>8</v>
@@ -762,15 +1029,15 @@
         <v>9</v>
       </c>
       <c r="X2" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -779,13 +1046,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>8</v>
@@ -800,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="P3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>8</v>
@@ -818,10 +1085,10 @@
         <v>9</v>
       </c>
       <c r="X3" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -832,13 +1099,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>8</v>
@@ -853,28 +1120,28 @@
         <v>11</v>
       </c>
       <c r="P4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -885,13 +1152,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>8</v>
@@ -912,22 +1179,22 @@
         <v>8</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y5" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -938,13 +1205,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>8</v>
@@ -965,19 +1232,19 @@
         <v>8</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X6" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="2">
         <v>23</v>
@@ -991,13 +1258,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>8</v>
@@ -1012,25 +1279,25 @@
         <v>14</v>
       </c>
       <c r="P7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="2">
         <v>16</v>
@@ -1038,19 +1305,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="K8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>8</v>
@@ -1059,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>8</v>
@@ -1068,97 +1335,97 @@
         <v>11</v>
       </c>
       <c r="X8" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y8" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="K9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X9" s="2">
         <v>5</v>
       </c>
       <c r="Y9" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="K10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="2">
         <v>12</v>
-      </c>
-      <c r="X10" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="K11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>12</v>
@@ -1170,71 +1437,71 @@
         <v>8</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="K12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="K13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>14</v>
@@ -1246,22 +1513,22 @@
         <v>8</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1269,22 +1536,22 @@
         <v>8</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X14" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y14" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1295,7 +1562,7 @@
         <v>13</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>8</v>
@@ -1304,10 +1571,10 @@
         <v>13</v>
       </c>
       <c r="X15" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y15" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1315,22 +1582,22 @@
         <v>8</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y16" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="18:25">
@@ -1338,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X17" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="2">
         <v>23</v>
@@ -1361,111 +1628,111 @@
         <v>8</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X18" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y18" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="18:25">
       <c r="R19" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="X19" s="2">
         <v>6</v>
       </c>
       <c r="Y19" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="18:25">
       <c r="R20" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="X20" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Y20" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="18:25">
       <c r="R21" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="18:25">
       <c r="R22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="V22" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X22" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="2">
         <v>20</v>
@@ -1473,232 +1740,485 @@
     </row>
     <row r="23" spans="18:25">
       <c r="R23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X23" s="2">
         <v>10</v>
       </c>
-      <c r="T23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X23" s="2">
-        <v>11</v>
-      </c>
       <c r="Y23" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="18:25">
       <c r="R24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X24" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y24" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="18:25">
       <c r="R25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X25" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y25" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="18:25">
       <c r="R26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X26" s="2">
         <v>8</v>
       </c>
       <c r="Y26" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="18:25">
       <c r="R27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X27" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y27" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="18:25">
       <c r="R28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="W28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X28" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y28" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="18:25">
       <c r="R29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X29" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y29" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="18:25">
       <c r="R30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X30" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y30" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="18:25">
       <c r="R31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X31" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y31" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="18:25">
       <c r="R32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X32" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y32" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="18:25">
+      <c r="R33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="18:25">
+      <c r="R34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="18:25">
+      <c r="R35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X35" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="18:25">
+      <c r="R36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="18:25">
+      <c r="R37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="18:25">
+      <c r="R38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X38" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="18:25">
+      <c r="R39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X39" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="18:25">
+      <c r="R40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="18:25">
+      <c r="R41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X41" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="18:25">
+      <c r="R42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X42" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="18:25">
+      <c r="R43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X43" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1716,7 +2236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J282"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1724,14 +2244,14 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1739,28 +2259,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -1768,57 +2288,57 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>16</v>
@@ -1826,28 +2346,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>16</v>
@@ -1855,1420 +2375,1420 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="J33" s="2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H43" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H48" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>15</v>
@@ -3276,86 +3796,86 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>15</v>
@@ -3363,521 +3883,521 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>15</v>
@@ -3885,57 +4405,57 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>16</v>
@@ -3943,28 +4463,28 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>16</v>
@@ -3972,1513 +4492,2008 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J84" s="2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="2" t="s">
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="G95" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="G96" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10">
-      <c r="G97" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="2" t="s">
+      <c r="J119" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10">
-      <c r="G98" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="7:10">
-      <c r="G99" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="7:10">
-      <c r="G100" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="7:10">
-      <c r="G101" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10">
-      <c r="G102" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="7:10">
-      <c r="G103" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10">
-      <c r="G104" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
-      <c r="G105" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
-      <c r="G106" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
-      <c r="G107" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
-      <c r="G108" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10">
-      <c r="G109" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10">
-      <c r="G110" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="7:10">
-      <c r="G111" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J111" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="7:10">
-      <c r="G112" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10">
-      <c r="G113" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="7:10">
-      <c r="G114" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10">
-      <c r="G115" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="2" t="s">
+    <row r="123" spans="1:10">
+      <c r="A123" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10">
-      <c r="G116" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10">
-      <c r="G117" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10">
-      <c r="G118" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="7:10">
-      <c r="G119" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10">
-      <c r="G120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="7:10">
-      <c r="G121" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10">
-      <c r="G122" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="7:10">
-      <c r="G123" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="7:10">
+      <c r="E124" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G124" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="7:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G125" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="7:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G126" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="7:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G127" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" spans="7:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="G128" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="7:10">
       <c r="G129" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="7:10">
       <c r="G130" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="7:10">
       <c r="G131" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="7:10">
       <c r="G132" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="7:10">
       <c r="G133" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="7:10">
       <c r="G134" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="7:10">
       <c r="G135" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="7:10">
       <c r="G136" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="7:10">
       <c r="G137" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="7:10">
       <c r="G138" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="7:10">
       <c r="G139" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="7:10">
       <c r="G140" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="7:10">
       <c r="G141" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="7:10">
       <c r="G142" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="7:10">
       <c r="G143" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="7:10">
       <c r="G144" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="7:10">
       <c r="G145" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="7:10">
       <c r="G146" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="7:10">
       <c r="G147" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="7:10">
       <c r="G148" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="7:10">
       <c r="G149" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="7:10">
       <c r="G150" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="7:10">
       <c r="G151" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="7:10">
       <c r="G152" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="7:10">
       <c r="G153" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="7:10">
       <c r="G154" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="7:10">
       <c r="G155" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="7:10">
       <c r="G156" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="7:10">
       <c r="G157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H157" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="J157" s="2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="7:10">
       <c r="G158" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="159" spans="7:10">
       <c r="G159" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="7:10">
       <c r="G160" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="7:10">
       <c r="G161" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="7:10">
       <c r="G162" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="7:10">
       <c r="G163" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="7:10">
       <c r="G164" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="165" spans="7:10">
       <c r="G165" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="7:10">
       <c r="G166" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="7:10">
       <c r="G167" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="7:10">
       <c r="G168" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="7:10">
       <c r="G169" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>16</v>
@@ -5486,352 +6501,1584 @@
     </row>
     <row r="170" spans="7:10">
       <c r="G170" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="7:10">
       <c r="G171" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="7:10">
       <c r="G172" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="J172" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="7:10">
       <c r="G173" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="7:10">
       <c r="G174" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="7:10">
       <c r="G175" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="7:10">
       <c r="G176" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="7:10">
       <c r="G177" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="7:10">
       <c r="G178" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="179" spans="7:10">
       <c r="G179" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="7:10">
       <c r="G180" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="7:10">
       <c r="G181" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="7:10">
       <c r="G182" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="7:10">
       <c r="G183" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184" spans="7:10">
       <c r="G184" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="185" spans="7:10">
       <c r="G185" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="7:10">
       <c r="G186" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="7:10">
       <c r="G187" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="7:10">
       <c r="G188" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="7:10">
       <c r="G189" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="7:10">
       <c r="G190" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="7:10">
       <c r="G191" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="7:10">
       <c r="G192" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="7:10">
       <c r="G193" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="7:10">
       <c r="G194" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="7:10">
+      <c r="G195" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="7:10">
+      <c r="G196" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="7:10">
+      <c r="G197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="7:10">
+      <c r="G198" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="7:10">
+      <c r="G199" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="7:10">
+      <c r="G200" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="7:10">
+      <c r="G201" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="7:10">
+      <c r="G202" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="203" spans="7:10">
+      <c r="G203" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I203" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H194" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>34</v>
+      <c r="J203" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" spans="7:10">
+      <c r="G204" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="205" spans="7:10">
+      <c r="G205" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206" spans="7:10">
+      <c r="G206" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="207" spans="7:10">
+      <c r="G207" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208" spans="7:10">
+      <c r="G208" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="209" spans="7:10">
+      <c r="G209" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="210" spans="7:10">
+      <c r="G210" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="211" spans="7:10">
+      <c r="G211" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="212" spans="7:10">
+      <c r="G212" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="7:10">
+      <c r="G213" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="7:10">
+      <c r="G214" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="7:10">
+      <c r="G215" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="7:10">
+      <c r="G216" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="217" spans="7:10">
+      <c r="G217" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="218" spans="7:10">
+      <c r="G218" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="7:10">
+      <c r="G219" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="7:10">
+      <c r="G220" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="7:10">
+      <c r="G221" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="7:10">
+      <c r="G222" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="223" spans="7:10">
+      <c r="G223" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="224" spans="7:10">
+      <c r="G224" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="7:10">
+      <c r="G225" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="7:10">
+      <c r="G226" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="227" spans="7:10">
+      <c r="G227" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="228" spans="7:10">
+      <c r="G228" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="229" spans="7:10">
+      <c r="G229" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="230" spans="7:10">
+      <c r="G230" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="231" spans="7:10">
+      <c r="G231" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="232" spans="7:10">
+      <c r="G232" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="7:10">
+      <c r="G233" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="234" spans="7:10">
+      <c r="G234" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="235" spans="7:10">
+      <c r="G235" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="236" spans="7:10">
+      <c r="G236" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J236" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="237" spans="7:10">
+      <c r="G237" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="238" spans="7:10">
+      <c r="G238" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="7:10">
+      <c r="G239" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="7:10">
+      <c r="G240" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J240" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="7:10">
+      <c r="G241" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J241" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="7:10">
+      <c r="G242" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J242" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="7:10">
+      <c r="G243" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J243" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="7:10">
+      <c r="G244" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J244" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="7:10">
+      <c r="G245" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="7:10">
+      <c r="G246" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J246" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="7:10">
+      <c r="G247" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J247" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="7:10">
+      <c r="G248" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J248" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="7:10">
+      <c r="G249" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J249" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="7:10">
+      <c r="G250" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="251" spans="7:10">
+      <c r="G251" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="252" spans="7:10">
+      <c r="G252" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="253" spans="7:10">
+      <c r="G253" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J253" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="254" spans="7:10">
+      <c r="G254" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J254" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="255" spans="7:10">
+      <c r="G255" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J255" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="256" spans="7:10">
+      <c r="G256" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J256" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="257" spans="7:10">
+      <c r="G257" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J257" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="258" spans="7:10">
+      <c r="G258" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="7:10">
+      <c r="G259" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="7:10">
+      <c r="G260" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="7:10">
+      <c r="G261" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="7:10">
+      <c r="G262" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="7:10">
+      <c r="G263" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J263" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="264" spans="7:10">
+      <c r="G264" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J264" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="265" spans="7:10">
+      <c r="G265" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="266" spans="7:10">
+      <c r="G266" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J266" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="7:10">
+      <c r="G267" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J267" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="268" spans="7:10">
+      <c r="G268" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J268" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="269" spans="7:10">
+      <c r="G269" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J269" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="270" spans="7:10">
+      <c r="G270" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J270" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="271" spans="7:10">
+      <c r="G271" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="272" spans="7:10">
+      <c r="G272" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J272" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="273" spans="7:10">
+      <c r="G273" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="274" spans="7:10">
+      <c r="G274" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="275" spans="7:10">
+      <c r="G275" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J275" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="276" spans="7:10">
+      <c r="G276" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="277" spans="7:10">
+      <c r="G277" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J277" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="278" spans="7:10">
+      <c r="G278" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I278" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J278" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="279" spans="7:10">
+      <c r="G279" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I279" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J279" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="280" spans="7:10">
+      <c r="G280" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I280" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J280" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="281" spans="7:10">
+      <c r="G281" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="282" spans="7:10">
+      <c r="G282" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
